--- a/results/mp/deberta/corona/confidence/168/stop-words-desired-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-desired-0.1/avg_0.004_scores.xlsx
@@ -97,10 +97,10 @@
     <t>support</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>fresh</t>
   </si>
   <si>
     <t>well</t>
@@ -1069,25 +1069,25 @@
         <v>27</v>
       </c>
       <c r="K19">
-        <v>0.7665198237885462</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L19">
-        <v>174</v>
+        <v>33</v>
       </c>
       <c r="M19">
-        <v>186</v>
+        <v>36</v>
       </c>
       <c r="N19">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="O19">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P19" t="b">
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1095,25 +1095,25 @@
         <v>28</v>
       </c>
       <c r="K20">
-        <v>0.7333333333333333</v>
+        <v>0.7280334728033473</v>
       </c>
       <c r="L20">
-        <v>33</v>
+        <v>174</v>
       </c>
       <c r="M20">
-        <v>36</v>
+        <v>174</v>
       </c>
       <c r="N20">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1303,25 +1303,25 @@
         <v>36</v>
       </c>
       <c r="K28">
-        <v>0.6299694189602446</v>
+        <v>0.6058823529411764</v>
       </c>
       <c r="L28">
         <v>206</v>
       </c>
       <c r="M28">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="N28">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>121</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="10:17">
